--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1375334.682335071</v>
+        <v>1446717.266983347</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18152047.48133116</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101364.287467431</v>
+        <v>606553.204079715</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6133580.409906101</v>
+        <v>6613931.717538618</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +667,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>59.59474737021493</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>347.3423948989257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>148.6041873872573</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>97.20690742198914</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.38624967974232</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>94.75572470629935</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1060,19 +1062,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>168.1589972036696</v>
       </c>
       <c r="C8" t="n">
-        <v>102.5037954855511</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1145,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998642</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>170.5429327192554</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>275.5725309554977</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>282.7684658251388</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>242.1280891411956</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>169.9259850434494</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>109.7358283393287</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2485,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,22 +2718,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>90.59002589087447</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>22.2853439284767</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9742767430576</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>6.133574646794441</v>
       </c>
     </row>
     <row r="32">
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>2.008513159456065</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3430,7 +3432,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>28.46824604904493</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3506,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.45405731752649</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093434</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>1.668339094104391</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>130.9830890894425</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3907,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>33.28996520190793</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>50.30825486907145</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3980,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1345421406133</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1011.477214236518</v>
+        <v>2139.946552541567</v>
       </c>
       <c r="C2" t="n">
-        <v>573.3347414199409</v>
+        <v>1701.80407972499</v>
       </c>
       <c r="D2" t="n">
-        <v>137.4249565943854</v>
+        <v>1265.894294899434</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>832.1195500577296</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>404.2521204669374</v>
       </c>
       <c r="G2" t="n">
         <v>53.40121652862856</v>
@@ -4328,19 +4330,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>2566.246123026474</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>277.7880908295411</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L3" t="n">
-        <v>277.7880908295411</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="M3" t="n">
-        <v>277.7880908295411</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="N3" t="n">
-        <v>277.7880908295411</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="O3" t="n">
-        <v>938.6281453713194</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705994</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705994</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="D4" t="n">
-        <v>767.4178585721221</v>
+        <v>575.5992398531349</v>
       </c>
       <c r="E4" t="n">
-        <v>597.6598548228594</v>
+        <v>405.8412361038722</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>405.8412361038722</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>240.2499611296998</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1384.069879342264</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C5" t="n">
-        <v>945.9274065256873</v>
+        <v>614.758195394171</v>
       </c>
       <c r="D5" t="n">
-        <v>914.0580257405359</v>
+        <v>582.8888146090196</v>
       </c>
       <c r="E5" t="n">
-        <v>884.3236849392351</v>
+        <v>149.1140697673148</v>
       </c>
       <c r="F5" t="n">
-        <v>456.4562553484429</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>55.05842397170682</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>55.05842397170682</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>736.4064206215786</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1417.75441727145</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2099.102413921322</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2752.921198585341</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2752.921198585341</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2752.921198585341</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2752.921198585341</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2669.269324769178</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2669.269324769178</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2669.269324769178</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2669.269324769178</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>2264.413870180211</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.271406759522</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1436.985283059175</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561.2301689629996</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.7737077996419</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.6834189461952</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.5630042731489</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>182.1791658893105</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.79407615549434</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>55.05842397170682</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>55.05842397170682</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>55.05842397170682</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>736.4064206215786</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1417.75441727145</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1417.75441727145</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1718.298185450516</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1718.298185450516</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1718.298185450516</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1718.298185450516</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.842747898899</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.6641042295</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.327557229469</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1149.210039291468</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.8872850246621</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>809.019849263542</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.5340700427628</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>743.1344400946909</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>570.5727285779159</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>404.6947357794386</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>283.620547506657</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>283.620547506657</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>283.620547506657</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>143.7183731970315</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.6381091363967</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.3965637075322</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.6064454754933</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1294.090312656406</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.349115814051</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2156.018365039832</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.525259010174</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.718033874507</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2650.300212579878</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2491.058843877875</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>2245.17939745633</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.746396709435</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.790888579866</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.764484166157</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.37272949957</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.9530588136781</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1456.149570588902</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.610383229759</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>916.7005984042039</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>482.9258535624991</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>55.05842397170682</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>55.05842397170682</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>490.3131114246247</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1171.661108074496</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1355.920351223817</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1355.920351223817</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1355.920351223817</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1355.920351223817</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>2037.268347873689</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2583.767133832284</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2752.921198585341</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2669.269324769178</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2669.269324769178</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2669.269324769178</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2306.652374703004</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2305.837324154441</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2290.735264774156</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1882.44914107381</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>561.2301689629996</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.7737077996419</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.6834189461952</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.5630042731489</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>182.1791658893105</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.79407615549434</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>55.05842397170682</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>55.05842397170682</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L9" t="n">
-        <v>55.05842397170682</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="M9" t="n">
-        <v>736.4064206215786</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.75441727145</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.75441727145</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1601.125407356176</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1601.125407356176</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1718.298185450516</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.842747898899</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.6641042295</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.327557229469</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.210039291468</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.8872850246621</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>809.019849263542</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.5340700427628</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1134.116584583588</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>961.5548730668132</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>795.6768802683359</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>625.9188765190731</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>449.2118224808293</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>283.620547506657</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>143.7183731970315</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.6381091363967</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.3965637075322</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.6064454754933</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1294.090312656406</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.349115814051</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2156.018365039832</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.525259010174</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.718033874507</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.718033874507</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.718033874507</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2636.161541945227</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2357.728541198333</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.773033068763</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.746628655055</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.354873988467</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.935203302575</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1928.923280575685</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.780807759108</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D11" t="n">
-        <v>1490.780807759108</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E11" t="n">
-        <v>1057.006062917404</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F11" t="n">
-        <v>629.1386333266114</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G11" t="n">
-        <v>227.7408019498753</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H11" t="n">
-        <v>55.47521334456681</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>55.05842397170682</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L11" t="n">
-        <v>736.4064206215786</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M11" t="n">
-        <v>736.4064206215786</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.75441727145</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>2099.102413921322</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2583.767133832284</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2583.767133832284</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2752.921198585341</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2752.921198585341</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2752.921198585341</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>2752.921198585341</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>2348.065743996374</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X11" t="n">
-        <v>1928.923280575685</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y11" t="n">
-        <v>1928.923280575685</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>55.05842397170682</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>55.05842397170682</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>55.05842397170682</v>
+        <v>479.4321036325088</v>
       </c>
       <c r="L12" t="n">
-        <v>355.6021921507722</v>
+        <v>479.4321036325088</v>
       </c>
       <c r="M12" t="n">
-        <v>355.6021921507722</v>
+        <v>479.4321036325088</v>
       </c>
       <c r="N12" t="n">
-        <v>355.6021921507722</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O12" t="n">
-        <v>1036.950188800644</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1718.298185450516</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1718.298185450516</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1134.116584583588</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>961.5548730668132</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>795.6768802683359</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>625.9188765190731</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>449.2118224808293</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>283.620547506657</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>143.7183731970315</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.718033874507</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.718033874507</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.838587452962</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.728541198333</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.773033068763</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.746628655055</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.354873988467</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.935203302575</v>
+        <v>1172.828259930735</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.872255288533</v>
+        <v>2119.011475323127</v>
       </c>
       <c r="C14" t="n">
-        <v>1491.872255288533</v>
+        <v>1680.86900250655</v>
       </c>
       <c r="D14" t="n">
-        <v>1206.247542333848</v>
+        <v>1244.959217680994</v>
       </c>
       <c r="E14" t="n">
-        <v>772.4727974921427</v>
+        <v>811.1844728392896</v>
       </c>
       <c r="F14" t="n">
-        <v>344.6053679013505</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G14" t="n">
-        <v>344.6053679013505</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>55.47521334456681</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>162.3784226771305</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L14" t="n">
-        <v>843.7264193270023</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M14" t="n">
-        <v>843.7264193270023</v>
+        <v>3160.228192740442</v>
       </c>
       <c r="N14" t="n">
-        <v>843.7264193270023</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="O14" t="n">
-        <v>1525.074415976874</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="P14" t="n">
-        <v>2206.422412626746</v>
+        <v>4285.959176176888</v>
       </c>
       <c r="Q14" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2752.921198585341</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2532.853971458379</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>2273.631668775396</v>
+        <v>4140.212037584211</v>
       </c>
       <c r="V14" t="n">
-        <v>1911.014718709223</v>
+        <v>3777.595087518037</v>
       </c>
       <c r="W14" t="n">
-        <v>1911.014718709223</v>
+        <v>3372.73963292907</v>
       </c>
       <c r="X14" t="n">
-        <v>1491.872255288533</v>
+        <v>2953.597169508381</v>
       </c>
       <c r="Y14" t="n">
-        <v>1491.872255288533</v>
+        <v>2545.311045808035</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>736.4064206215786</v>
+        <v>743.208250979361</v>
       </c>
       <c r="M15" t="n">
-        <v>1417.75441727145</v>
+        <v>743.208250979361</v>
       </c>
       <c r="N15" t="n">
-        <v>1417.75441727145</v>
+        <v>743.208250979361</v>
       </c>
       <c r="O15" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P15" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1134.116584583588</v>
+        <v>918.5770357312381</v>
       </c>
       <c r="C16" t="n">
-        <v>961.5548730668132</v>
+        <v>746.015324214463</v>
       </c>
       <c r="D16" t="n">
-        <v>795.6768802683359</v>
+        <v>580.1373314159857</v>
       </c>
       <c r="E16" t="n">
-        <v>625.9188765190731</v>
+        <v>410.3793276667229</v>
       </c>
       <c r="F16" t="n">
-        <v>449.2118224808293</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="G16" t="n">
-        <v>283.620547506657</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H16" t="n">
-        <v>143.7183731970315</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.718033874507</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.838587452962</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.728541198333</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.773033068763</v>
+        <v>1855.233484216413</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.746628655055</v>
+        <v>1583.207079802705</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.354873988467</v>
+        <v>1337.815325136117</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.935203302575</v>
+        <v>1110.395654450225</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5501,64 +5503,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>926.893353805728</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2001.953320058587</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3159.001155269138</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4284.732138705585</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.5782250957668</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>777.0165135789917</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>777.0165135789917</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>607.2585098297291</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.396843814754</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5944,16 +5946,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>190.9207894961043</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D28" t="n">
-        <v>526.2700682195393</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E28" t="n">
-        <v>356.5120644702766</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.913654892426</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2594.704009018975</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3411.878090445059</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C34" t="n">
-        <v>3239.316378928283</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D34" t="n">
-        <v>3073.438386129806</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E34" t="n">
-        <v>2903.680382380544</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F34" t="n">
-        <v>2726.9733283423</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G34" t="n">
         <v>2724.944527171132</v>
@@ -6880,28 +6882,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y34" t="n">
-        <v>3603.696709164046</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="35">
@@ -6941,7 +6943,7 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
         <v>2588.899621423627</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3205.876241053795</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>3033.31452953702</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>2867.436536738543</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>4953.800644836978</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>4707.921198415434</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>4429.488197668539</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>4142.53268953897</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>3870.506285125261</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>3625.114530458674</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>3397.694859772782</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3486.780615022739</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>3314.218903505964</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>3148.340910707486</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>2978.582906958224</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>2801.87585291998</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240973</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>4029.747653827265</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>3784.355899160677</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>3556.936228474786</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>930.7958726179849</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C41" t="n">
-        <v>492.6533998014082</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D41" t="n">
-        <v>56.74361497585267</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E41" t="n">
-        <v>55.05842397170682</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F41" t="n">
-        <v>55.05842397170682</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G41" t="n">
-        <v>55.05842397170682</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H41" t="n">
-        <v>55.05842397170682</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>490.3131114246247</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>539.7231438826683</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1221.07114053254</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1902.419137182412</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2583.767133832284</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>2583.767133832284</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P41" t="n">
-        <v>2583.767133832284</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>2583.767133832284</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2752.921198585341</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2532.853971458379</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2532.853971458379</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V41" t="n">
-        <v>2170.237021392206</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W41" t="n">
-        <v>1765.381566803239</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X41" t="n">
-        <v>1765.381566803239</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y41" t="n">
-        <v>1357.095443102893</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>81.12209713216441</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J42" t="n">
-        <v>405.6804220983768</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K42" t="n">
-        <v>405.6804220983768</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L42" t="n">
-        <v>405.6804220983768</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M42" t="n">
-        <v>1087.028418748248</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N42" t="n">
-        <v>1601.125407356176</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O42" t="n">
-        <v>1601.125407356176</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P42" t="n">
-        <v>1601.125407356176</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q42" t="n">
-        <v>1601.125407356176</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R42" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>902.3758087966944</v>
+        <v>995.0825554554531</v>
       </c>
       <c r="C43" t="n">
-        <v>729.8140972799193</v>
+        <v>822.520843938678</v>
       </c>
       <c r="D43" t="n">
-        <v>563.936104481442</v>
+        <v>656.6428511402007</v>
       </c>
       <c r="E43" t="n">
-        <v>394.1781007321793</v>
+        <v>486.884847390938</v>
       </c>
       <c r="F43" t="n">
-        <v>360.5518732555046</v>
+        <v>310.1777933526942</v>
       </c>
       <c r="G43" t="n">
-        <v>194.9605982813323</v>
+        <v>144.5865183785218</v>
       </c>
       <c r="H43" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2650.300212579878</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2650.300212579878</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2404.420766158334</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2125.987765411439</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>1839.032257281869</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1567.005852868161</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1321.614098201573</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>1094.194427515682</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>731.7206363242566</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>293.5781635076799</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>55.05842397170682</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>55.05842397170682</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>55.05842397170682</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>55.05842397170682</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>55.05842397170682</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>55.05842397170682</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>55.05842397170682</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>736.4064206215786</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1417.75441727145</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2099.102413921322</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>2752.921198585341</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P44" t="n">
-        <v>2752.921198585341</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q44" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>2752.921198585341</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.921198585341</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V44" t="n">
-        <v>2390.304248519167</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>1985.448793930201</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>1566.306330509511</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1158.020206809164</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1595.853182097825</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1489.396720934467</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1394.30643208102</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1300.186017407974</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1216.802179024136</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1131.41708929032</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1089.681437106532</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>1115.74511026699</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1440.303435233202</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2095.009481858925</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2095.009481858925</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2095.009481858925</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2095.009481858925</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2095.009481858925</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2095.009481858925</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2635.748420491001</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2752.921198585341</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2689.465761033724</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2559.287117364326</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2382.950570364294</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2183.833052426293</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1998.510298159487</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1843.642862398367</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1717.157083177588</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1215.319749294422</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>1042.758037777647</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>876.88004497917</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>707.1220412299073</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>530.4149871916635</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>364.8237122174912</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>224.9215379078657</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>136.261588682541</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>222.8412738472309</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>497.5997284183665</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>915.8096101863275</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1375.29347736724</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1817.552280524885</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2237.221529750666</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2584.728423721008</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2752.921198585341</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2731.503377290713</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2731.503377290713</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2717.364706656062</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2438.931705909167</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>2151.976197779597</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1879.949793365889</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1634.558038699301</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1407.138368013409</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8055,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>688.2302996463352</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>688.2302996463354</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>660.4230148121396</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>303.5795638172378</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>688.2302996463352</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="P9" t="n">
-        <v>185.2232223078038</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>688.2302996463352</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="O11" t="n">
-        <v>688.2302996463354</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>489.5603231423852</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.39394564341939</v>
       </c>
       <c r="L12" t="n">
-        <v>303.5795638172378</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>108.4040390963875</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>406.6119088543392</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>688.2302996463352</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="M15" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>303.5795638172378</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>832.9621348837863</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1246.290173293239</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1127.286065669916</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>263.087760665011</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,10 +10591,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10835,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>946.7571087441347</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>49.90912369499353</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>730.6984529605797</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N42" t="n">
-        <v>519.2898874827551</v>
+        <v>507.9139216242372</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>688.2302996463354</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>660.4230148121396</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>115.6959202919605</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>125.2343690875794</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>148.7822211521611</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>14.50199051495767</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>114.1599680048244</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>65.20415515853267</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.62918697961805</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.67467827192567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.0118993322384</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>161.9268490649745</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>120.4463752142707</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>208.2197249473395</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>427.7686582991834</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>125.6469905667107</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>141.6500182959534</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>88.19489769745778</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>195.4161448366866</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>72.44040884377128</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>585148.0424524824</v>
+        <v>584984.8158890738</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>585148.0424524824</v>
+        <v>584984.8158890738</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>379224.3134188044</v>
+        <v>543729.4093911661</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>379224.3134188044</v>
+        <v>543729.4093911658</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579810.7761273637</v>
+        <v>579810.7761273638</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>579810.7761273637</v>
+        <v>579810.7761273638</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>379224.3134188044</v>
+        <v>543729.4093911658</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>379224.3134188044</v>
+        <v>543729.4093911661</v>
       </c>
     </row>
   </sheetData>
@@ -26320,13 +26322,13 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>232598.4947886001</v>
+        <v>333498.2429172709</v>
       </c>
       <c r="F2" t="n">
-        <v>232598.4947886001</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="G2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="H2" t="n">
         <v>355628.8692927128</v>
@@ -26335,7 +26337,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="K2" t="n">
         <v>355628.8692927128</v>
@@ -26350,10 +26352,10 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>232598.4947886</v>
+        <v>333498.2429172709</v>
       </c>
       <c r="P2" t="n">
-        <v>232598.4947886</v>
+        <v>333498.2429172709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
-        <v>6692.439318494999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>161718.4283916422</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
-        <v>5331.402065127076</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,16 +26420,16 @@
         <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>118651.4582734849</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>118651.4582734849</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9317.05398451088</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="F4" t="n">
-        <v>9317.05398451088</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9317.05398451088</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="P4" t="n">
-        <v>9317.053984510878</v>
+        <v>13358.73276318392</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75472.00221849717</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75472.00221849717</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58143.63544491204</v>
+        <v>-58143.63544491207</v>
       </c>
       <c r="C6" t="n">
-        <v>161083.5411155486</v>
+        <v>165556.0631391327</v>
       </c>
       <c r="D6" t="n">
-        <v>167775.9804340436</v>
+        <v>165556.0631391328</v>
       </c>
       <c r="E6" t="n">
-        <v>181437.038585592</v>
+        <v>98208.48110001018</v>
       </c>
       <c r="F6" t="n">
-        <v>181437.038585592</v>
+        <v>248874.234671758</v>
       </c>
       <c r="G6" t="n">
-        <v>101946.9967247856</v>
+        <v>234575.6159438198</v>
       </c>
       <c r="H6" t="n">
         <v>263665.4251164276</v>
@@ -26543,25 +26545,25 @@
         <v>263665.4251164276</v>
       </c>
       <c r="J6" t="n">
-        <v>89014.07639872143</v>
+        <v>89014.07639872149</v>
       </c>
       <c r="K6" t="n">
-        <v>258334.0230513005</v>
+        <v>263665.4251164276</v>
       </c>
       <c r="L6" t="n">
-        <v>263665.4251164277</v>
+        <v>263665.4251164276</v>
       </c>
       <c r="M6" t="n">
-        <v>263665.4251164276</v>
+        <v>137914.3367807369</v>
       </c>
       <c r="N6" t="n">
         <v>263665.4251164277</v>
       </c>
       <c r="O6" t="n">
-        <v>181437.0385855919</v>
+        <v>248874.2346717581</v>
       </c>
       <c r="P6" t="n">
-        <v>181437.0385855919</v>
+        <v>248874.2346717581</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0302037384101</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0302037384101</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>50.04145816404304</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>26.33579611060404</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>41.29624514454008</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>369.6503251003164</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>328.833030588585</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,7 +27675,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>48.19697732171633</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="C8" t="n">
-        <v>331.2572526028599</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473429</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>688.2302996463352</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>688.2302996463354</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>660.4230148121396</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>303.5795638172378</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>688.2302996463352</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="P9" t="n">
-        <v>185.2232223078038</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>688.2302996463352</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="O11" t="n">
-        <v>688.2302996463354</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>489.5603231423852</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.39394564341939</v>
       </c>
       <c r="L12" t="n">
-        <v>303.5795638172378</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>108.4040390963875</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>406.6119088543392</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>688.2302996463352</v>
+        <v>655.9981329904115</v>
       </c>
       <c r="M15" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>303.5795638172378</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>832.9621348837863</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1246.290173293239</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1127.286065669916</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>263.087760665011</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37309,10 +37311,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37554,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>946.7571087441347</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080455</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>49.90912369499353</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>730.6984529605797</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N42" t="n">
-        <v>519.2898874827551</v>
+        <v>507.9139216242372</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>688.2302996463354</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>660.4230148121396</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1446717.266983347</v>
+        <v>1446111.17935445</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.204079715</v>
+        <v>606553.2040797152</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>347.3423948989257</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>242.8243655528862</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -819,22 +819,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>137.247051021543</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>97.20690742198914</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>94.75572470629935</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>70.75434793228402</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>152.0176216574259</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.1589972036696</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1147,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>328.8060186080509</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.48898701015895</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>130.983089089443</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>275.5725309554977</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1581,10 +1581,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>131.996999652747</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.9735834668218</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>311.2452626149569</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>242.1280891411956</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>169.9259850434494</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>83.49545568307911</v>
       </c>
     </row>
     <row r="26">
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.2853439284767</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.133574646794441</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>50.38971918733537</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>75.86622810093434</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>286.1799194187355</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>130.9830890894425</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>50.30825486907145</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>145.4261460119205</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2139.946552541567</v>
+        <v>866.5213804116894</v>
       </c>
       <c r="C2" t="n">
-        <v>1701.80407972499</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.894294899434</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>832.1195500577296</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>404.2521204669374</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4342,7 +4342,7 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W2" t="n">
-        <v>2585.593902066702</v>
+        <v>1716.209133977229</v>
       </c>
       <c r="X2" t="n">
-        <v>2570.491842686417</v>
+        <v>1297.06667055654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2566.246123026474</v>
+        <v>1292.820950896597</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>741.4772326516122</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D4" t="n">
-        <v>575.5992398531349</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E4" t="n">
-        <v>405.8412361038722</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>405.8412361038722</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>240.2499611296998</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>648.8602641703436</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C5" t="n">
-        <v>614.758195394171</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>582.8888146090196</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>149.1140697673148</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4573,13 +4573,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.591788115989</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2598.591788115989</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>2235.974838049816</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1831.119383460849</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655251</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>903.8972536055599</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>731.3355420887848</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>565.4575492903075</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>395.6995455410447</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>218.9924915028009</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2405.942210967199</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>2127.509210220304</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>1840.553702090735</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1568.527297677026</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>1323.135543010439</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y7" t="n">
-        <v>1095.715872324547</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2480.040423909638</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>2041.897951093061</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.988166267505</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y8" t="n">
-        <v>2649.897996842637</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2626.132556724197</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2380.253110302652</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2101.820109555757</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1814.864601426188</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1542.838197012479</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2230.862362770219</v>
+        <v>2363.585302738476</v>
       </c>
       <c r="C11" t="n">
-        <v>1792.719889953642</v>
+        <v>1925.442829921899</v>
       </c>
       <c r="D11" t="n">
-        <v>1356.810105128087</v>
+        <v>1489.533045096344</v>
       </c>
       <c r="E11" t="n">
-        <v>923.035360286382</v>
+        <v>1055.758300254639</v>
       </c>
       <c r="F11" t="n">
-        <v>495.1679306955898</v>
+        <v>627.8908706638467</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885368</v>
+        <v>226.4930392871106</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2003.180357529891</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>2003.180357529891</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N11" t="n">
         <v>2164.36257382733</v>
@@ -5074,19 +5074,19 @@
         <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316576</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250403</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W11" t="n">
-        <v>3484.590520376163</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X11" t="n">
-        <v>3065.448056955473</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y11" t="n">
-        <v>2657.161933255127</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>479.4321036325088</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>479.4321036325088</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>479.4321036325088</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
@@ -5229,22 +5229,22 @@
         <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1172.828259930735</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2119.011475323127</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1680.86900250655</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1244.959217680994</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>811.1844728392896</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>383.3170432484974</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2003.180357529891</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>3160.228192740442</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>4285.959176176888</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>4285.959176176888</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>4285.959176176888</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
         <v>4688.504965942684</v>
@@ -5305,25 +5305,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4140.212037584211</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>3777.595087518037</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W14" t="n">
-        <v>3372.73963292907</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X14" t="n">
-        <v>2953.597169508381</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y14" t="n">
-        <v>2545.311045808035</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>743.208250979361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>743.208250979361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>743.208250979361</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797663</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>918.5770357312381</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>746.015324214463</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>580.1373314159857</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>410.3793276667229</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>233.6722736284792</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>233.6722736284792</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
         <v>93.77009931885368</v>
@@ -5466,22 +5466,22 @@
         <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2026.87589335121</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1855.233484216413</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1583.207079802705</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1337.815325136117</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>1110.395654450225</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5594,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1362.151784991544</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>126.8499155856325</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1362.151784991544</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4284.732138705584</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2674.992180466348</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2429.112734044803</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2150.679733297909</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1863.724225168339</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1591.697820754631</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1346.306066088043</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1118.886395402151</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6782,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.440564248063</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>3402.878852731288</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.000859932811</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>5077.485521609701</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>4799.052520862807</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>4512.097012733238</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>4240.070608319529</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>3994.678853652942</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>3767.25918296705</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>805.1180535919176</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>635.3600498426549</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>458.6529958044111</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>293.0617208302388</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>153.1595465206133</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7174,22 +7174,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7338,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752038</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005143</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2231.279152143079</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C41" t="n">
-        <v>1793.136679326502</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D41" t="n">
-        <v>1357.226894500947</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E41" t="n">
-        <v>923.452149659242</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F41" t="n">
-        <v>495.5847200684498</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G41" t="n">
-        <v>94.18688869171368</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
         <v>94.18688869171368</v>
@@ -7426,7 +7426,7 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3418.614711553115</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
         <v>4142.00617998409</v>
@@ -7438,25 +7438,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>4252.479714404163</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V41" t="n">
-        <v>3889.86276433799</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W41" t="n">
-        <v>3485.007309749023</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X41" t="n">
-        <v>3065.864846328333</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y41" t="n">
-        <v>2657.578722627987</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
         <v>1757.009860797663</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>995.0825554554531</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>822.520843938678</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>656.6428511402007</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>486.884847390938</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>310.1777933526942</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>144.5865183785218</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
         <v>93.77009931885368</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2551.18834051965</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2026.87589335121</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.920385221641</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1467.893980807932</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1222.502226141345</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>995.0825554554531</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.409306699863</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
@@ -7663,10 +7663,10 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3418.614711553115</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4246.924586386512</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
         <v>4688.504965942684</v>
@@ -7678,22 +7678,22 @@
         <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4541.609868960946</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4541.609868960946</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.992918894773</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3774.137464305806</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8221,16 +8221,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.13097499434645</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="N11" t="n">
-        <v>162.8103194923631</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>35.39394564341939</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>406.6119088543392</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>702.7389601124028</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9886,13 +9886,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1127.286065669916</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>946.7571087441347</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>730.6984529605797</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>507.9139216242372</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>446.0407874304774</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>155.2557639217729</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>125.2343690875794</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.171890512211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>110.7913121651018</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>14.50199051495767</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>114.1599680048244</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>114.1599680048248</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
     </row>
     <row r="26">
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>135.3636110865066</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>37.38363054573605</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>208.2197249473395</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>111.2039336442332</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>125.6469905667107</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>88.19489769745778</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>72.44040884377128</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>543729.4093911658</v>
+        <v>543729.4093911659</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579810.7761273638</v>
+        <v>579810.7761273637</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>579810.7761273638</v>
+        <v>579810.7761273637</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>543729.4093911658</v>
+        <v>543729.4093911659</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>543729.4093911661</v>
+        <v>543729.4093911659</v>
       </c>
     </row>
   </sheetData>
@@ -26322,13 +26322,13 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>333498.2429172709</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="F2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="G2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
         <v>355628.8692927128</v>
@@ -26355,7 +26355,7 @@
         <v>333498.2429172709</v>
       </c>
       <c r="P2" t="n">
-        <v>333498.2429172709</v>
+        <v>333498.2429172708</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="C4" t="n">
         <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
         <v>13358.73276318392</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58143.63544491207</v>
+        <v>-58143.63544491214</v>
       </c>
       <c r="C6" t="n">
         <v>165556.0631391327</v>
       </c>
       <c r="D6" t="n">
-        <v>165556.0631391328</v>
+        <v>165556.0631391327</v>
       </c>
       <c r="E6" t="n">
-        <v>98208.48110001018</v>
+        <v>98103.29147775547</v>
       </c>
       <c r="F6" t="n">
-        <v>248874.234671758</v>
+        <v>248769.0450495034</v>
       </c>
       <c r="G6" t="n">
-        <v>234575.6159438198</v>
+        <v>234552.3916044372</v>
       </c>
       <c r="H6" t="n">
-        <v>263665.4251164276</v>
+        <v>263642.2007770449</v>
       </c>
       <c r="I6" t="n">
-        <v>263665.4251164276</v>
+        <v>263642.2007770449</v>
       </c>
       <c r="J6" t="n">
-        <v>89014.07639872149</v>
+        <v>88990.85205933891</v>
       </c>
       <c r="K6" t="n">
-        <v>263665.4251164276</v>
+        <v>263642.200777045</v>
       </c>
       <c r="L6" t="n">
-        <v>263665.4251164276</v>
+        <v>263642.2007770449</v>
       </c>
       <c r="M6" t="n">
-        <v>137914.3367807369</v>
+        <v>137891.1124413543</v>
       </c>
       <c r="N6" t="n">
-        <v>263665.4251164277</v>
+        <v>263642.2007770449</v>
       </c>
       <c r="O6" t="n">
-        <v>248874.2346717581</v>
+        <v>248769.0450495035</v>
       </c>
       <c r="P6" t="n">
-        <v>248874.2346717581</v>
+        <v>248769.0450495034</v>
       </c>
     </row>
   </sheetData>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>50.04145816404304</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>116.1664150126255</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>33.58904338006434</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>41.29624514454008</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>328.833030588585</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>147.1122069234077</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27794,7 +27794,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>90.92021546249575</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.8775775763891</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>86.14502017843154</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>114.1599680048243</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34941,16 +34941,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.13097499434645</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="N11" t="n">
-        <v>162.8103194923631</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>35.39394564341939</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>406.6119088543392</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>655.9981329904115</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>289.0667057209139</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>702.7389601124028</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,13 +36606,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1127.286065669916</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37150,22 +37150,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>946.7571087441347</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37706,10 +37706,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080455</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37794,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>730.6984529605797</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>507.9139216242372</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>446.0407874304774</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
